--- a/project/merge_f_m.xlsx
+++ b/project/merge_f_m.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>각 자치구별 연령대별 총합</t>
+          <t>각 자치구별 연령대별 총 인구수</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>1561.020555555556</v>
+        <v>34343</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>1865.266565656565</v>
+        <v>41036</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>2269.385454545454</v>
+        <v>49927</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>2058.474141414141</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>2165.318636363637</v>
+        <v>47638</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>2289.714595959596</v>
+        <v>50374</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>1975.808636363636</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>1752.753080808081</v>
+        <v>38561</v>
       </c>
     </row>
     <row r="10">
@@ -591,7 +591,7 @@
         <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>1353.696818181818</v>
+        <v>29782</v>
       </c>
     </row>
     <row r="11">
@@ -607,7 +607,7 @@
         <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>1054.616919191919</v>
+        <v>23202</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>673.5209090909091</v>
+        <v>14818</v>
       </c>
     </row>
     <row r="13">
@@ -639,7 +639,7 @@
         <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>919.9899494949495</v>
+        <v>20240</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>1621.411913580247</v>
+        <v>29186</v>
       </c>
     </row>
     <row r="15">
@@ -671,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>1735.462469135803</v>
+        <v>31239</v>
       </c>
     </row>
     <row r="16">
@@ -687,7 +687,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>2040.699135802469</v>
+        <v>36733</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>1998.636111111111</v>
+        <v>35976</v>
       </c>
     </row>
     <row r="18">
@@ -719,7 +719,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>2059.555864197531</v>
+        <v>37073</v>
       </c>
     </row>
     <row r="19">
@@ -735,7 +735,7 @@
         <v>45</v>
       </c>
       <c r="D19" t="n">
-        <v>2072.968765432099</v>
+        <v>37314</v>
       </c>
     </row>
     <row r="20">
@@ -751,7 +751,7 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>2149.47450617284</v>
+        <v>38691</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>2164.96438271605</v>
+        <v>38970</v>
       </c>
     </row>
     <row r="22">
@@ -783,7 +783,7 @@
         <v>60</v>
       </c>
       <c r="D22" t="n">
-        <v>1599.580679012346</v>
+        <v>28793</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +799,7 @@
         <v>65</v>
       </c>
       <c r="D23" t="n">
-        <v>1167.23537037037</v>
+        <v>21011</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +815,7 @@
         <v>70</v>
       </c>
       <c r="D24" t="n">
-        <v>753.7290740740741</v>
+        <v>13568</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +831,7 @@
         <v>75</v>
       </c>
       <c r="D25" t="n">
-        <v>938.8069135802468</v>
+        <v>16899</v>
       </c>
     </row>
     <row r="26">
@@ -847,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>1660.474871794872</v>
+        <v>21587</v>
       </c>
     </row>
     <row r="27">
@@ -863,7 +863,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>1590.070683760684</v>
+        <v>20671</v>
       </c>
     </row>
     <row r="28">
@@ -879,7 +879,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>1870.933931623932</v>
+        <v>24323</v>
       </c>
     </row>
     <row r="29">
@@ -895,7 +895,7 @@
         <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>1845.655897435897</v>
+        <v>23994</v>
       </c>
     </row>
     <row r="30">
@@ -911,7 +911,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="n">
-        <v>2046.641282051282</v>
+        <v>26607</v>
       </c>
     </row>
     <row r="31">
@@ -927,7 +927,7 @@
         <v>45</v>
       </c>
       <c r="D31" t="n">
-        <v>2031.527863247863</v>
+        <v>26410</v>
       </c>
     </row>
     <row r="32">
@@ -943,7 +943,7 @@
         <v>50</v>
       </c>
       <c r="D32" t="n">
-        <v>2037.02829059829</v>
+        <v>26482</v>
       </c>
     </row>
     <row r="33">
@@ -959,7 +959,7 @@
         <v>55</v>
       </c>
       <c r="D33" t="n">
-        <v>2063.526495726495</v>
+        <v>26826</v>
       </c>
     </row>
     <row r="34">
@@ -975,7 +975,7 @@
         <v>60</v>
       </c>
       <c r="D34" t="n">
-        <v>1615.846581196581</v>
+        <v>21007</v>
       </c>
     </row>
     <row r="35">
@@ -991,7 +991,7 @@
         <v>65</v>
       </c>
       <c r="D35" t="n">
-        <v>1377.960427350427</v>
+        <v>17914</v>
       </c>
     </row>
     <row r="36">
@@ -1007,7 +1007,7 @@
         <v>70</v>
       </c>
       <c r="D36" t="n">
-        <v>957.0089743589745</v>
+        <v>12442</v>
       </c>
     </row>
     <row r="37">
@@ -1023,7 +1023,7 @@
         <v>75</v>
       </c>
       <c r="D37" t="n">
-        <v>1555.010256410256</v>
+        <v>20216</v>
       </c>
     </row>
     <row r="38">
@@ -1039,7 +1039,7 @@
         <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>1836.0275</v>
+        <v>36721</v>
       </c>
     </row>
     <row r="39">
@@ -1055,7 +1055,7 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>2141.433777777777</v>
+        <v>42829</v>
       </c>
     </row>
     <row r="40">
@@ -1071,7 +1071,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>2703.839333333333</v>
+        <v>54077</v>
       </c>
     </row>
     <row r="41">
@@ -1087,7 +1087,7 @@
         <v>35</v>
       </c>
       <c r="D41" t="n">
-        <v>2501.378777777778</v>
+        <v>50028</v>
       </c>
     </row>
     <row r="42">
@@ -1103,7 +1103,7 @@
         <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>2399.823555555555</v>
+        <v>47997</v>
       </c>
     </row>
     <row r="43">
@@ -1119,7 +1119,7 @@
         <v>45</v>
       </c>
       <c r="D43" t="n">
-        <v>2198.672444444444</v>
+        <v>43974</v>
       </c>
     </row>
     <row r="44">
@@ -1135,7 +1135,7 @@
         <v>50</v>
       </c>
       <c r="D44" t="n">
-        <v>2279.059277777778</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="45">
@@ -1151,7 +1151,7 @@
         <v>55</v>
       </c>
       <c r="D45" t="n">
-        <v>2330.664722222222</v>
+        <v>46614</v>
       </c>
     </row>
     <row r="46">
@@ -1167,7 +1167,7 @@
         <v>60</v>
       </c>
       <c r="D46" t="n">
-        <v>1725.639888888889</v>
+        <v>34513</v>
       </c>
     </row>
     <row r="47">
@@ -1183,7 +1183,7 @@
         <v>65</v>
       </c>
       <c r="D47" t="n">
-        <v>1281.914611111111</v>
+        <v>25639</v>
       </c>
     </row>
     <row r="48">
@@ -1199,7 +1199,7 @@
         <v>70</v>
       </c>
       <c r="D48" t="n">
-        <v>858.8558888888889</v>
+        <v>17178</v>
       </c>
     </row>
     <row r="49">
@@ -1215,7 +1215,7 @@
         <v>75</v>
       </c>
       <c r="D49" t="n">
-        <v>1168.908888888889</v>
+        <v>23379</v>
       </c>
     </row>
     <row r="50">
@@ -1231,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>1994.990899470899</v>
+        <v>41895</v>
       </c>
     </row>
     <row r="51">
@@ -1247,7 +1247,7 @@
         <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>2828.375767195767</v>
+        <v>59396</v>
       </c>
     </row>
     <row r="52">
@@ -1263,7 +1263,7 @@
         <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>2674.378835978836</v>
+        <v>56162</v>
       </c>
     </row>
     <row r="53">
@@ -1279,7 +1279,7 @@
         <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>2075.081851851852</v>
+        <v>43577</v>
       </c>
     </row>
     <row r="54">
@@ -1295,7 +1295,7 @@
         <v>40</v>
       </c>
       <c r="D54" t="n">
-        <v>1940.16798941799</v>
+        <v>40744</v>
       </c>
     </row>
     <row r="55">
@@ -1311,7 +1311,7 @@
         <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>1752.668571428571</v>
+        <v>36807</v>
       </c>
     </row>
     <row r="56">
@@ -1327,7 +1327,7 @@
         <v>50</v>
       </c>
       <c r="D56" t="n">
-        <v>1796.478148148148</v>
+        <v>37727</v>
       </c>
     </row>
     <row r="57">
@@ -1343,7 +1343,7 @@
         <v>55</v>
       </c>
       <c r="D57" t="n">
-        <v>1810.257989417989</v>
+        <v>38016</v>
       </c>
     </row>
     <row r="58">
@@ -1359,7 +1359,7 @@
         <v>60</v>
       </c>
       <c r="D58" t="n">
-        <v>1442.430793650793</v>
+        <v>30292</v>
       </c>
     </row>
     <row r="59">
@@ -1375,7 +1375,7 @@
         <v>65</v>
       </c>
       <c r="D59" t="n">
-        <v>1166.43455026455</v>
+        <v>24496</v>
       </c>
     </row>
     <row r="60">
@@ -1391,7 +1391,7 @@
         <v>70</v>
       </c>
       <c r="D60" t="n">
-        <v>748.4581481481482</v>
+        <v>15718</v>
       </c>
     </row>
     <row r="61">
@@ -1407,7 +1407,7 @@
         <v>75</v>
       </c>
       <c r="D61" t="n">
-        <v>1102.724920634921</v>
+        <v>23158</v>
       </c>
     </row>
     <row r="62">
@@ -1423,7 +1423,7 @@
         <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>2101.520888888889</v>
+        <v>31523</v>
       </c>
     </row>
     <row r="63">
@@ -1439,7 +1439,7 @@
         <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>2312.198074074075</v>
+        <v>34683</v>
       </c>
     </row>
     <row r="64">
@@ -1455,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>2344.172592592593</v>
+        <v>35163</v>
       </c>
     </row>
     <row r="65">
@@ -1471,7 +1471,7 @@
         <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>1917.841555555555</v>
+        <v>28768</v>
       </c>
     </row>
     <row r="66">
@@ -1487,7 +1487,7 @@
         <v>40</v>
       </c>
       <c r="D66" t="n">
-        <v>1982.58637037037</v>
+        <v>29739</v>
       </c>
     </row>
     <row r="67">
@@ -1503,7 +1503,7 @@
         <v>45</v>
       </c>
       <c r="D67" t="n">
-        <v>2030.940296296297</v>
+        <v>30465</v>
       </c>
     </row>
     <row r="68">
@@ -1519,7 +1519,7 @@
         <v>50</v>
       </c>
       <c r="D68" t="n">
-        <v>2012.11</v>
+        <v>30182</v>
       </c>
     </row>
     <row r="69">
@@ -1535,7 +1535,7 @@
         <v>55</v>
       </c>
       <c r="D69" t="n">
-        <v>1895.622148148148</v>
+        <v>28435</v>
       </c>
     </row>
     <row r="70">
@@ -1551,7 +1551,7 @@
         <v>60</v>
       </c>
       <c r="D70" t="n">
-        <v>1350.414592592593</v>
+        <v>20257</v>
       </c>
     </row>
     <row r="71">
@@ -1567,7 +1567,7 @@
         <v>65</v>
       </c>
       <c r="D71" t="n">
-        <v>972.2138518518518</v>
+        <v>14584</v>
       </c>
     </row>
     <row r="72">
@@ -1583,7 +1583,7 @@
         <v>70</v>
       </c>
       <c r="D72" t="n">
-        <v>657.8131851851851</v>
+        <v>9868</v>
       </c>
     </row>
     <row r="73">
@@ -1599,7 +1599,7 @@
         <v>75</v>
       </c>
       <c r="D73" t="n">
-        <v>977.0566666666666</v>
+        <v>14656</v>
       </c>
     </row>
     <row r="74">
@@ -1615,7 +1615,7 @@
         <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>1758.468074074074</v>
+        <v>26378</v>
       </c>
     </row>
     <row r="75">
@@ -1631,7 +1631,7 @@
         <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>2160.85874074074</v>
+        <v>32413</v>
       </c>
     </row>
     <row r="76">
@@ -1647,7 +1647,7 @@
         <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>2708.883333333333</v>
+        <v>40634</v>
       </c>
     </row>
     <row r="77">
@@ -1663,7 +1663,7 @@
         <v>35</v>
       </c>
       <c r="D77" t="n">
-        <v>2603.269037037037</v>
+        <v>39050</v>
       </c>
     </row>
     <row r="78">
@@ -1679,7 +1679,7 @@
         <v>40</v>
       </c>
       <c r="D78" t="n">
-        <v>2515.361333333333</v>
+        <v>37731</v>
       </c>
     </row>
     <row r="79">
@@ -1695,7 +1695,7 @@
         <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>2384.241407407407</v>
+        <v>35764</v>
       </c>
     </row>
     <row r="80">
@@ -1711,7 +1711,7 @@
         <v>50</v>
       </c>
       <c r="D80" t="n">
-        <v>2504.06911111111</v>
+        <v>37562</v>
       </c>
     </row>
     <row r="81">
@@ -1727,7 +1727,7 @@
         <v>55</v>
       </c>
       <c r="D81" t="n">
-        <v>2530.691925925926</v>
+        <v>37961</v>
       </c>
     </row>
     <row r="82">
@@ -1743,7 +1743,7 @@
         <v>60</v>
       </c>
       <c r="D82" t="n">
-        <v>1951.601851851852</v>
+        <v>29275</v>
       </c>
     </row>
     <row r="83">
@@ -1759,7 +1759,7 @@
         <v>65</v>
       </c>
       <c r="D83" t="n">
-        <v>1442.117333333333</v>
+        <v>21632</v>
       </c>
     </row>
     <row r="84">
@@ -1775,7 +1775,7 @@
         <v>70</v>
       </c>
       <c r="D84" t="n">
-        <v>897.4304444444444</v>
+        <v>13462</v>
       </c>
     </row>
     <row r="85">
@@ -1791,7 +1791,7 @@
         <v>75</v>
       </c>
       <c r="D85" t="n">
-        <v>1258.266888888889</v>
+        <v>18875</v>
       </c>
     </row>
     <row r="86">
@@ -1807,7 +1807,7 @@
         <v>20</v>
       </c>
       <c r="D86" t="n">
-        <v>1604.860444444445</v>
+        <v>16049</v>
       </c>
     </row>
     <row r="87">
@@ -1823,7 +1823,7 @@
         <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>1982.002555555555</v>
+        <v>19821</v>
       </c>
     </row>
     <row r="88">
@@ -1839,7 +1839,7 @@
         <v>30</v>
       </c>
       <c r="D88" t="n">
-        <v>2126.240111111111</v>
+        <v>21263</v>
       </c>
     </row>
     <row r="89">
@@ -1855,7 +1855,7 @@
         <v>35</v>
       </c>
       <c r="D89" t="n">
-        <v>1891.549333333333</v>
+        <v>18916</v>
       </c>
     </row>
     <row r="90">
@@ -1871,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="D90" t="n">
-        <v>2033.829555555555</v>
+        <v>20339</v>
       </c>
     </row>
     <row r="91">
@@ -1887,7 +1887,7 @@
         <v>45</v>
       </c>
       <c r="D91" t="n">
-        <v>2247.078444444444</v>
+        <v>22471</v>
       </c>
     </row>
     <row r="92">
@@ -1903,7 +1903,7 @@
         <v>50</v>
       </c>
       <c r="D92" t="n">
-        <v>2426.225333333334</v>
+        <v>24263</v>
       </c>
     </row>
     <row r="93">
@@ -1919,7 +1919,7 @@
         <v>55</v>
       </c>
       <c r="D93" t="n">
-        <v>2282.859666666667</v>
+        <v>22829</v>
       </c>
     </row>
     <row r="94">
@@ -1935,7 +1935,7 @@
         <v>60</v>
       </c>
       <c r="D94" t="n">
-        <v>1682.520111111111</v>
+        <v>16826</v>
       </c>
     </row>
     <row r="95">
@@ -1951,7 +1951,7 @@
         <v>65</v>
       </c>
       <c r="D95" t="n">
-        <v>1195.864333333333</v>
+        <v>11959</v>
       </c>
     </row>
     <row r="96">
@@ -1967,7 +1967,7 @@
         <v>70</v>
       </c>
       <c r="D96" t="n">
-        <v>787.5589999999999</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="97">
@@ -1983,7 +1983,7 @@
         <v>75</v>
       </c>
       <c r="D97" t="n">
-        <v>1098.386111111111</v>
+        <v>10984</v>
       </c>
     </row>
     <row r="98">
@@ -1999,7 +1999,7 @@
         <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>2272.845029239766</v>
+        <v>43185</v>
       </c>
     </row>
     <row r="99">
@@ -2015,7 +2015,7 @@
         <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>1841.054678362573</v>
+        <v>34981</v>
       </c>
     </row>
     <row r="100">
@@ -2031,7 +2031,7 @@
         <v>30</v>
       </c>
       <c r="D100" t="n">
-        <v>2076.708830409357</v>
+        <v>39458</v>
       </c>
     </row>
     <row r="101">
@@ -2047,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="D101" t="n">
-        <v>2150.778888888889</v>
+        <v>40865</v>
       </c>
     </row>
     <row r="102">
@@ -2063,7 +2063,7 @@
         <v>40</v>
       </c>
       <c r="D102" t="n">
-        <v>2621.622865497075</v>
+        <v>49811</v>
       </c>
     </row>
     <row r="103">
@@ -2079,7 +2079,7 @@
         <v>45</v>
       </c>
       <c r="D103" t="n">
-        <v>2730.845087719298</v>
+        <v>51887</v>
       </c>
     </row>
     <row r="104">
@@ -2095,7 +2095,7 @@
         <v>50</v>
       </c>
       <c r="D104" t="n">
-        <v>2469.181169590643</v>
+        <v>46915</v>
       </c>
     </row>
     <row r="105">
@@ -2111,7 +2111,7 @@
         <v>55</v>
       </c>
       <c r="D105" t="n">
-        <v>2287.922807017544</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="106">
@@ -2127,7 +2127,7 @@
         <v>60</v>
       </c>
       <c r="D106" t="n">
-        <v>1619.687719298246</v>
+        <v>30775</v>
       </c>
     </row>
     <row r="107">
@@ -2143,7 +2143,7 @@
         <v>65</v>
       </c>
       <c r="D107" t="n">
-        <v>1192.214619883041</v>
+        <v>22653</v>
       </c>
     </row>
     <row r="108">
@@ -2159,7 +2159,7 @@
         <v>70</v>
       </c>
       <c r="D108" t="n">
-        <v>906.5466081871346</v>
+        <v>17225</v>
       </c>
     </row>
     <row r="109">
@@ -2175,7 +2175,7 @@
         <v>75</v>
       </c>
       <c r="D109" t="n">
-        <v>1400.066666666667</v>
+        <v>26602</v>
       </c>
     </row>
     <row r="110">
@@ -2191,7 +2191,7 @@
         <v>20</v>
       </c>
       <c r="D110" t="n">
-        <v>1725.384761904762</v>
+        <v>24156</v>
       </c>
     </row>
     <row r="111">
@@ -2207,7 +2207,7 @@
         <v>25</v>
       </c>
       <c r="D111" t="n">
-        <v>1589.344603174603</v>
+        <v>22251</v>
       </c>
     </row>
     <row r="112">
@@ -2223,7 +2223,7 @@
         <v>30</v>
       </c>
       <c r="D112" t="n">
-        <v>1759.581428571429</v>
+        <v>24635</v>
       </c>
     </row>
     <row r="113">
@@ -2239,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="D113" t="n">
-        <v>1717.844206349206</v>
+        <v>24050</v>
       </c>
     </row>
     <row r="114">
@@ -2255,7 +2255,7 @@
         <v>40</v>
       </c>
       <c r="D114" t="n">
-        <v>1963.635476190476</v>
+        <v>27491</v>
       </c>
     </row>
     <row r="115">
@@ -2271,7 +2271,7 @@
         <v>45</v>
       </c>
       <c r="D115" t="n">
-        <v>2080.281746031746</v>
+        <v>29124</v>
       </c>
     </row>
     <row r="116">
@@ -2287,7 +2287,7 @@
         <v>50</v>
       </c>
       <c r="D116" t="n">
-        <v>2106.614047619047</v>
+        <v>29493</v>
       </c>
     </row>
     <row r="117">
@@ -2303,7 +2303,7 @@
         <v>55</v>
       </c>
       <c r="D117" t="n">
-        <v>2142.78373015873</v>
+        <v>29999</v>
       </c>
     </row>
     <row r="118">
@@ -2319,7 +2319,7 @@
         <v>60</v>
       </c>
       <c r="D118" t="n">
-        <v>1549.12880952381</v>
+        <v>21688</v>
       </c>
     </row>
     <row r="119">
@@ -2335,7 +2335,7 @@
         <v>65</v>
       </c>
       <c r="D119" t="n">
-        <v>1167.945714285714</v>
+        <v>16352</v>
       </c>
     </row>
     <row r="120">
@@ -2351,7 +2351,7 @@
         <v>70</v>
       </c>
       <c r="D120" t="n">
-        <v>855.5816666666667</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="121">
@@ -2367,7 +2367,7 @@
         <v>75</v>
       </c>
       <c r="D121" t="n">
-        <v>1349.957857142857</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="122">
@@ -2383,7 +2383,7 @@
         <v>20</v>
       </c>
       <c r="D122" t="n">
-        <v>2368.242777777778</v>
+        <v>33156</v>
       </c>
     </row>
     <row r="123">
@@ -2399,7 +2399,7 @@
         <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>2228.337539682539</v>
+        <v>31197</v>
       </c>
     </row>
     <row r="124">
@@ -2415,7 +2415,7 @@
         <v>30</v>
       </c>
       <c r="D124" t="n">
-        <v>2118.92746031746</v>
+        <v>29665</v>
       </c>
     </row>
     <row r="125">
@@ -2431,7 +2431,7 @@
         <v>35</v>
       </c>
       <c r="D125" t="n">
-        <v>1960.494761904762</v>
+        <v>27447</v>
       </c>
     </row>
     <row r="126">
@@ -2447,7 +2447,7 @@
         <v>40</v>
       </c>
       <c r="D126" t="n">
-        <v>2024.219047619048</v>
+        <v>28340</v>
       </c>
     </row>
     <row r="127">
@@ -2463,7 +2463,7 @@
         <v>45</v>
       </c>
       <c r="D127" t="n">
-        <v>1963.19253968254</v>
+        <v>27485</v>
       </c>
     </row>
     <row r="128">
@@ -2479,7 +2479,7 @@
         <v>50</v>
       </c>
       <c r="D128" t="n">
-        <v>1992.609047619048</v>
+        <v>27897</v>
       </c>
     </row>
     <row r="129">
@@ -2495,7 +2495,7 @@
         <v>55</v>
       </c>
       <c r="D129" t="n">
-        <v>2028.642539682539</v>
+        <v>28401</v>
       </c>
     </row>
     <row r="130">
@@ -2511,7 +2511,7 @@
         <v>60</v>
       </c>
       <c r="D130" t="n">
-        <v>1577.598571428572</v>
+        <v>22087</v>
       </c>
     </row>
     <row r="131">
@@ -2527,7 +2527,7 @@
         <v>65</v>
       </c>
       <c r="D131" t="n">
-        <v>1251.371904761905</v>
+        <v>17520</v>
       </c>
     </row>
     <row r="132">
@@ -2543,7 +2543,7 @@
         <v>70</v>
       </c>
       <c r="D132" t="n">
-        <v>892.6869047619048</v>
+        <v>12498</v>
       </c>
     </row>
     <row r="133">
@@ -2559,7 +2559,7 @@
         <v>75</v>
       </c>
       <c r="D133" t="n">
-        <v>1426.894444444444</v>
+        <v>19977</v>
       </c>
     </row>
     <row r="134">
@@ -2575,7 +2575,7 @@
         <v>20</v>
       </c>
       <c r="D134" t="n">
-        <v>2185.837333333333</v>
+        <v>32788</v>
       </c>
     </row>
     <row r="135">
@@ -2591,7 +2591,7 @@
         <v>25</v>
       </c>
       <c r="D135" t="n">
-        <v>2475.733777777778</v>
+        <v>37137</v>
       </c>
     </row>
     <row r="136">
@@ -2607,7 +2607,7 @@
         <v>30</v>
       </c>
       <c r="D136" t="n">
-        <v>2600.22325925926</v>
+        <v>39004</v>
       </c>
     </row>
     <row r="137">
@@ -2623,7 +2623,7 @@
         <v>35</v>
       </c>
       <c r="D137" t="n">
-        <v>2236.88562962963</v>
+        <v>33554</v>
       </c>
     </row>
     <row r="138">
@@ -2639,7 +2639,7 @@
         <v>40</v>
       </c>
       <c r="D138" t="n">
-        <v>2163.647333333333</v>
+        <v>32455</v>
       </c>
     </row>
     <row r="139">
@@ -2655,7 +2655,7 @@
         <v>45</v>
       </c>
       <c r="D139" t="n">
-        <v>2010.495925925926</v>
+        <v>30158</v>
       </c>
     </row>
     <row r="140">
@@ -2671,7 +2671,7 @@
         <v>50</v>
       </c>
       <c r="D140" t="n">
-        <v>2045.606962962963</v>
+        <v>30685</v>
       </c>
     </row>
     <row r="141">
@@ -2687,7 +2687,7 @@
         <v>55</v>
       </c>
       <c r="D141" t="n">
-        <v>2072.630666666666</v>
+        <v>31090</v>
       </c>
     </row>
     <row r="142">
@@ -2703,7 +2703,7 @@
         <v>60</v>
       </c>
       <c r="D142" t="n">
-        <v>1579.188666666667</v>
+        <v>23688</v>
       </c>
     </row>
     <row r="143">
@@ -2719,7 +2719,7 @@
         <v>65</v>
       </c>
       <c r="D143" t="n">
-        <v>1266.809851851852</v>
+        <v>19003</v>
       </c>
     </row>
     <row r="144">
@@ -2735,7 +2735,7 @@
         <v>70</v>
       </c>
       <c r="D144" t="n">
-        <v>852.8634074074073</v>
+        <v>12793</v>
       </c>
     </row>
     <row r="145">
@@ -2751,7 +2751,7 @@
         <v>75</v>
       </c>
       <c r="D145" t="n">
-        <v>1329.742592592593</v>
+        <v>19947</v>
       </c>
     </row>
     <row r="146">
@@ -2767,7 +2767,7 @@
         <v>20</v>
       </c>
       <c r="D146" t="n">
-        <v>1778.664166666667</v>
+        <v>28459</v>
       </c>
     </row>
     <row r="147">
@@ -2783,7 +2783,7 @@
         <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>2078.930138888889</v>
+        <v>33263</v>
       </c>
     </row>
     <row r="148">
@@ -2799,7 +2799,7 @@
         <v>30</v>
       </c>
       <c r="D148" t="n">
-        <v>2364.193333333334</v>
+        <v>37828</v>
       </c>
     </row>
     <row r="149">
@@ -2815,7 +2815,7 @@
         <v>35</v>
       </c>
       <c r="D149" t="n">
-        <v>2116.936597222222</v>
+        <v>33871</v>
       </c>
     </row>
     <row r="150">
@@ -2831,7 +2831,7 @@
         <v>40</v>
       </c>
       <c r="D150" t="n">
-        <v>2154.696597222223</v>
+        <v>34476</v>
       </c>
     </row>
     <row r="151">
@@ -2847,7 +2847,7 @@
         <v>45</v>
       </c>
       <c r="D151" t="n">
-        <v>1856.834791666667</v>
+        <v>29710</v>
       </c>
     </row>
     <row r="152">
@@ -2863,7 +2863,7 @@
         <v>50</v>
       </c>
       <c r="D152" t="n">
-        <v>1734.765416666667</v>
+        <v>27757</v>
       </c>
     </row>
     <row r="153">
@@ -2879,7 +2879,7 @@
         <v>55</v>
       </c>
       <c r="D153" t="n">
-        <v>1627.134652777778</v>
+        <v>26035</v>
       </c>
     </row>
     <row r="154">
@@ -2895,7 +2895,7 @@
         <v>60</v>
       </c>
       <c r="D154" t="n">
-        <v>1191.355277777778</v>
+        <v>19062</v>
       </c>
     </row>
     <row r="155">
@@ -2911,7 +2911,7 @@
         <v>65</v>
       </c>
       <c r="D155" t="n">
-        <v>963.4381944444445</v>
+        <v>15416</v>
       </c>
     </row>
     <row r="156">
@@ -2927,7 +2927,7 @@
         <v>70</v>
       </c>
       <c r="D156" t="n">
-        <v>724.3546527777778</v>
+        <v>11590</v>
       </c>
     </row>
     <row r="157">
@@ -2943,7 +2943,7 @@
         <v>75</v>
       </c>
       <c r="D157" t="n">
-        <v>1197.311111111111</v>
+        <v>19157</v>
       </c>
     </row>
     <row r="158">
@@ -2959,7 +2959,7 @@
         <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>2123.448809523809</v>
+        <v>29729</v>
       </c>
     </row>
     <row r="159">
@@ -2975,7 +2975,7 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>1865.162063492063</v>
+        <v>26113</v>
       </c>
     </row>
     <row r="160">
@@ -2991,7 +2991,7 @@
         <v>30</v>
       </c>
       <c r="D160" t="n">
-        <v>1706.728095238095</v>
+        <v>23895</v>
       </c>
     </row>
     <row r="161">
@@ -3007,7 +3007,7 @@
         <v>35</v>
       </c>
       <c r="D161" t="n">
-        <v>1582.238412698413</v>
+        <v>22152</v>
       </c>
     </row>
     <row r="162">
@@ -3023,7 +3023,7 @@
         <v>40</v>
       </c>
       <c r="D162" t="n">
-        <v>1793.361507936508</v>
+        <v>25108</v>
       </c>
     </row>
     <row r="163">
@@ -3039,7 +3039,7 @@
         <v>45</v>
       </c>
       <c r="D163" t="n">
-        <v>1789.499841269841</v>
+        <v>25053</v>
       </c>
     </row>
     <row r="164">
@@ -3055,7 +3055,7 @@
         <v>50</v>
       </c>
       <c r="D164" t="n">
-        <v>1720.154841269841</v>
+        <v>24083</v>
       </c>
     </row>
     <row r="165">
@@ -3071,7 +3071,7 @@
         <v>55</v>
       </c>
       <c r="D165" t="n">
-        <v>1653.683412698413</v>
+        <v>23152</v>
       </c>
     </row>
     <row r="166">
@@ -3087,7 +3087,7 @@
         <v>60</v>
       </c>
       <c r="D166" t="n">
-        <v>1233.378095238095</v>
+        <v>17268</v>
       </c>
     </row>
     <row r="167">
@@ -3103,7 +3103,7 @@
         <v>65</v>
       </c>
       <c r="D167" t="n">
-        <v>1035.926507936508</v>
+        <v>14503</v>
       </c>
     </row>
     <row r="168">
@@ -3119,7 +3119,7 @@
         <v>70</v>
       </c>
       <c r="D168" t="n">
-        <v>785.5936507936508</v>
+        <v>10999</v>
       </c>
     </row>
     <row r="169">
@@ -3135,7 +3135,7 @@
         <v>75</v>
       </c>
       <c r="D169" t="n">
-        <v>1341.049365079365</v>
+        <v>18775</v>
       </c>
     </row>
     <row r="170">
@@ -3151,7 +3151,7 @@
         <v>20</v>
       </c>
       <c r="D170" t="n">
-        <v>1456.29475308642</v>
+        <v>26214</v>
       </c>
     </row>
     <row r="171">
@@ -3167,7 +3167,7 @@
         <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>1623.773580246914</v>
+        <v>29228</v>
       </c>
     </row>
     <row r="172">
@@ -3183,7 +3183,7 @@
         <v>30</v>
       </c>
       <c r="D172" t="n">
-        <v>1999.57537037037</v>
+        <v>35993</v>
       </c>
     </row>
     <row r="173">
@@ -3199,7 +3199,7 @@
         <v>35</v>
       </c>
       <c r="D173" t="n">
-        <v>2002.74975308642</v>
+        <v>36050</v>
       </c>
     </row>
     <row r="174">
@@ -3215,7 +3215,7 @@
         <v>40</v>
       </c>
       <c r="D174" t="n">
-        <v>2185.240185185185</v>
+        <v>39335</v>
       </c>
     </row>
     <row r="175">
@@ -3231,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="D175" t="n">
-        <v>2044.668271604939</v>
+        <v>36805</v>
       </c>
     </row>
     <row r="176">
@@ -3247,7 +3247,7 @@
         <v>50</v>
       </c>
       <c r="D176" t="n">
-        <v>1755.060555555556</v>
+        <v>31592</v>
       </c>
     </row>
     <row r="177">
@@ -3263,7 +3263,7 @@
         <v>55</v>
       </c>
       <c r="D177" t="n">
-        <v>1648.778518518518</v>
+        <v>29679</v>
       </c>
     </row>
     <row r="178">
@@ -3279,7 +3279,7 @@
         <v>60</v>
       </c>
       <c r="D178" t="n">
-        <v>1288.942530864198</v>
+        <v>23201</v>
       </c>
     </row>
     <row r="179">
@@ -3295,7 +3295,7 @@
         <v>65</v>
       </c>
       <c r="D179" t="n">
-        <v>1018.50012345679</v>
+        <v>18334</v>
       </c>
     </row>
     <row r="180">
@@ -3311,7 +3311,7 @@
         <v>70</v>
       </c>
       <c r="D180" t="n">
-        <v>644.9714197530866</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="181">
@@ -3327,7 +3327,7 @@
         <v>75</v>
       </c>
       <c r="D181" t="n">
-        <v>929.9377160493826</v>
+        <v>16739</v>
       </c>
     </row>
     <row r="182">
@@ -3343,7 +3343,7 @@
         <v>20</v>
       </c>
       <c r="D182" t="n">
-        <v>1313.557843137255</v>
+        <v>22331</v>
       </c>
     </row>
     <row r="183">
@@ -3359,7 +3359,7 @@
         <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>1423.619019607843</v>
+        <v>24202</v>
       </c>
     </row>
     <row r="184">
@@ -3375,7 +3375,7 @@
         <v>30</v>
       </c>
       <c r="D184" t="n">
-        <v>1556.776993464052</v>
+        <v>26466</v>
       </c>
     </row>
     <row r="185">
@@ -3391,7 +3391,7 @@
         <v>35</v>
       </c>
       <c r="D185" t="n">
-        <v>1461.020980392157</v>
+        <v>24838</v>
       </c>
     </row>
     <row r="186">
@@ -3407,7 +3407,7 @@
         <v>40</v>
       </c>
       <c r="D186" t="n">
-        <v>1478.285816993464</v>
+        <v>25131</v>
       </c>
     </row>
     <row r="187">
@@ -3423,7 +3423,7 @@
         <v>45</v>
       </c>
       <c r="D187" t="n">
-        <v>1408.621111111111</v>
+        <v>23947</v>
       </c>
     </row>
     <row r="188">
@@ -3439,7 +3439,7 @@
         <v>50</v>
       </c>
       <c r="D188" t="n">
-        <v>1431.146405228758</v>
+        <v>24330</v>
       </c>
     </row>
     <row r="189">
@@ -3455,7 +3455,7 @@
         <v>55</v>
       </c>
       <c r="D189" t="n">
-        <v>1358.957320261438</v>
+        <v>23103</v>
       </c>
     </row>
     <row r="190">
@@ -3471,7 +3471,7 @@
         <v>60</v>
       </c>
       <c r="D190" t="n">
-        <v>985.3439215686276</v>
+        <v>16751</v>
       </c>
     </row>
     <row r="191">
@@ -3487,7 +3487,7 @@
         <v>65</v>
       </c>
       <c r="D191" t="n">
-        <v>759.8995424836601</v>
+        <v>12919</v>
       </c>
     </row>
     <row r="192">
@@ -3503,7 +3503,7 @@
         <v>70</v>
       </c>
       <c r="D192" t="n">
-        <v>543.1296732026144</v>
+        <v>9234</v>
       </c>
     </row>
     <row r="193">
@@ -3519,7 +3519,7 @@
         <v>75</v>
       </c>
       <c r="D193" t="n">
-        <v>849.8320261437908</v>
+        <v>14448</v>
       </c>
     </row>
     <row r="194">
@@ -3535,7 +3535,7 @@
         <v>20</v>
       </c>
       <c r="D194" t="n">
-        <v>1973.152166666666</v>
+        <v>39464</v>
       </c>
     </row>
     <row r="195">
@@ -3551,7 +3551,7 @@
         <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>1728.117444444445</v>
+        <v>34563</v>
       </c>
     </row>
     <row r="196">
@@ -3567,7 +3567,7 @@
         <v>30</v>
       </c>
       <c r="D196" t="n">
-        <v>1747.882666666667</v>
+        <v>34958</v>
       </c>
     </row>
     <row r="197">
@@ -3583,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="D197" t="n">
-        <v>1726.244</v>
+        <v>34525</v>
       </c>
     </row>
     <row r="198">
@@ -3599,7 +3599,7 @@
         <v>40</v>
       </c>
       <c r="D198" t="n">
-        <v>1978.015666666667</v>
+        <v>39561</v>
       </c>
     </row>
     <row r="199">
@@ -3615,7 +3615,7 @@
         <v>45</v>
       </c>
       <c r="D199" t="n">
-        <v>1827.270944444444</v>
+        <v>36546</v>
       </c>
     </row>
     <row r="200">
@@ -3631,7 +3631,7 @@
         <v>50</v>
       </c>
       <c r="D200" t="n">
-        <v>1722.582944444444</v>
+        <v>34452</v>
       </c>
     </row>
     <row r="201">
@@ -3647,7 +3647,7 @@
         <v>55</v>
       </c>
       <c r="D201" t="n">
-        <v>1707.229833333333</v>
+        <v>34145</v>
       </c>
     </row>
     <row r="202">
@@ -3663,7 +3663,7 @@
         <v>60</v>
       </c>
       <c r="D202" t="n">
-        <v>1281.833277777778</v>
+        <v>25637</v>
       </c>
     </row>
     <row r="203">
@@ -3679,7 +3679,7 @@
         <v>65</v>
       </c>
       <c r="D203" t="n">
-        <v>1047.210777777778</v>
+        <v>20945</v>
       </c>
     </row>
     <row r="204">
@@ -3695,7 +3695,7 @@
         <v>70</v>
       </c>
       <c r="D204" t="n">
-        <v>743.1495555555555</v>
+        <v>14863</v>
       </c>
     </row>
     <row r="205">
@@ -3711,7 +3711,7 @@
         <v>75</v>
       </c>
       <c r="D205" t="n">
-        <v>1225.487111111111</v>
+        <v>24510</v>
       </c>
     </row>
     <row r="206">
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="D206" t="n">
-        <v>1553.129835390946</v>
+        <v>41935</v>
       </c>
     </row>
     <row r="207">
@@ -3743,7 +3743,7 @@
         <v>25</v>
       </c>
       <c r="D207" t="n">
-        <v>1758.73329218107</v>
+        <v>47486</v>
       </c>
     </row>
     <row r="208">
@@ -3759,7 +3759,7 @@
         <v>30</v>
       </c>
       <c r="D208" t="n">
-        <v>2141.121028806584</v>
+        <v>57811</v>
       </c>
     </row>
     <row r="209">
@@ -3775,7 +3775,7 @@
         <v>35</v>
       </c>
       <c r="D209" t="n">
-        <v>2037.625102880658</v>
+        <v>55016</v>
       </c>
     </row>
     <row r="210">
@@ -3791,7 +3791,7 @@
         <v>40</v>
       </c>
       <c r="D210" t="n">
-        <v>2173.852551440329</v>
+        <v>58695</v>
       </c>
     </row>
     <row r="211">
@@ -3807,7 +3807,7 @@
         <v>45</v>
       </c>
       <c r="D211" t="n">
-        <v>2092.228106995885</v>
+        <v>56491</v>
       </c>
     </row>
     <row r="212">
@@ -3823,7 +3823,7 @@
         <v>50</v>
       </c>
       <c r="D212" t="n">
-        <v>2009.739135802469</v>
+        <v>54263</v>
       </c>
     </row>
     <row r="213">
@@ -3839,7 +3839,7 @@
         <v>55</v>
       </c>
       <c r="D213" t="n">
-        <v>1949.543621399177</v>
+        <v>52638</v>
       </c>
     </row>
     <row r="214">
@@ -3855,7 +3855,7 @@
         <v>60</v>
       </c>
       <c r="D214" t="n">
-        <v>1479.006049382716</v>
+        <v>39934</v>
       </c>
     </row>
     <row r="215">
@@ -3871,7 +3871,7 @@
         <v>65</v>
       </c>
       <c r="D215" t="n">
-        <v>1051.44646090535</v>
+        <v>28390</v>
       </c>
     </row>
     <row r="216">
@@ -3887,7 +3887,7 @@
         <v>70</v>
       </c>
       <c r="D216" t="n">
-        <v>689.8878189300412</v>
+        <v>18627</v>
       </c>
     </row>
     <row r="217">
@@ -3903,7 +3903,7 @@
         <v>75</v>
       </c>
       <c r="D217" t="n">
-        <v>841.4427983539094</v>
+        <v>22719</v>
       </c>
     </row>
     <row r="218">
@@ -3919,7 +3919,7 @@
         <v>20</v>
       </c>
       <c r="D218" t="n">
-        <v>1759.062777777778</v>
+        <v>31664</v>
       </c>
     </row>
     <row r="219">
@@ -3935,7 +3935,7 @@
         <v>25</v>
       </c>
       <c r="D219" t="n">
-        <v>1581.839506172839</v>
+        <v>28474</v>
       </c>
     </row>
     <row r="220">
@@ -3951,7 +3951,7 @@
         <v>30</v>
       </c>
       <c r="D220" t="n">
-        <v>1847.557839506173</v>
+        <v>33257</v>
       </c>
     </row>
     <row r="221">
@@ -3967,7 +3967,7 @@
         <v>35</v>
       </c>
       <c r="D221" t="n">
-        <v>1851.548456790123</v>
+        <v>33328</v>
       </c>
     </row>
     <row r="222">
@@ -3983,7 +3983,7 @@
         <v>40</v>
       </c>
       <c r="D222" t="n">
-        <v>2324.096913580247</v>
+        <v>41834</v>
       </c>
     </row>
     <row r="223">
@@ -3999,7 +3999,7 @@
         <v>45</v>
       </c>
       <c r="D223" t="n">
-        <v>2541.205432098765</v>
+        <v>45742</v>
       </c>
     </row>
     <row r="224">
@@ -4015,7 +4015,7 @@
         <v>50</v>
       </c>
       <c r="D224" t="n">
-        <v>2324.012037037037</v>
+        <v>41833</v>
       </c>
     </row>
     <row r="225">
@@ -4031,7 +4031,7 @@
         <v>55</v>
       </c>
       <c r="D225" t="n">
-        <v>2038.265925925926</v>
+        <v>36689</v>
       </c>
     </row>
     <row r="226">
@@ -4047,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="D226" t="n">
-        <v>1462.461049382716</v>
+        <v>26325</v>
       </c>
     </row>
     <row r="227">
@@ -4063,7 +4063,7 @@
         <v>65</v>
       </c>
       <c r="D227" t="n">
-        <v>1049.291543209877</v>
+        <v>18888</v>
       </c>
     </row>
     <row r="228">
@@ -4079,7 +4079,7 @@
         <v>70</v>
       </c>
       <c r="D228" t="n">
-        <v>740.2001851851853</v>
+        <v>13324</v>
       </c>
     </row>
     <row r="229">
@@ -4095,7 +4095,7 @@
         <v>75</v>
       </c>
       <c r="D229" t="n">
-        <v>945.687037037037</v>
+        <v>17023</v>
       </c>
     </row>
     <row r="230">
@@ -4111,7 +4111,7 @@
         <v>20</v>
       </c>
       <c r="D230" t="n">
-        <v>1338.800802469136</v>
+        <v>24099</v>
       </c>
     </row>
     <row r="231">
@@ -4127,7 +4127,7 @@
         <v>25</v>
       </c>
       <c r="D231" t="n">
-        <v>1877.797098765432</v>
+        <v>33801</v>
       </c>
     </row>
     <row r="232">
@@ -4143,7 +4143,7 @@
         <v>30</v>
       </c>
       <c r="D232" t="n">
-        <v>2163.101481481481</v>
+        <v>38936</v>
       </c>
     </row>
     <row r="233">
@@ -4159,7 +4159,7 @@
         <v>35</v>
       </c>
       <c r="D233" t="n">
-        <v>1901.588827160494</v>
+        <v>34229</v>
       </c>
     </row>
     <row r="234">
@@ -4175,7 +4175,7 @@
         <v>40</v>
       </c>
       <c r="D234" t="n">
-        <v>1887.965679012346</v>
+        <v>33984</v>
       </c>
     </row>
     <row r="235">
@@ -4191,7 +4191,7 @@
         <v>45</v>
       </c>
       <c r="D235" t="n">
-        <v>1886.62549382716</v>
+        <v>33960</v>
       </c>
     </row>
     <row r="236">
@@ -4207,7 +4207,7 @@
         <v>50</v>
       </c>
       <c r="D236" t="n">
-        <v>2002.005925925926</v>
+        <v>36037</v>
       </c>
     </row>
     <row r="237">
@@ -4223,7 +4223,7 @@
         <v>55</v>
       </c>
       <c r="D237" t="n">
-        <v>1964.856111111111</v>
+        <v>35368</v>
       </c>
     </row>
     <row r="238">
@@ -4239,7 +4239,7 @@
         <v>60</v>
       </c>
       <c r="D238" t="n">
-        <v>1456.139938271605</v>
+        <v>26211</v>
       </c>
     </row>
     <row r="239">
@@ -4255,7 +4255,7 @@
         <v>65</v>
       </c>
       <c r="D239" t="n">
-        <v>1058.381790123457</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="240">
@@ -4271,7 +4271,7 @@
         <v>70</v>
       </c>
       <c r="D240" t="n">
-        <v>699.3598148148149</v>
+        <v>12589</v>
       </c>
     </row>
     <row r="241">
@@ -4287,7 +4287,7 @@
         <v>75</v>
       </c>
       <c r="D241" t="n">
-        <v>1042.978518518519</v>
+        <v>18774</v>
       </c>
     </row>
     <row r="242">
@@ -4303,7 +4303,7 @@
         <v>20</v>
       </c>
       <c r="D242" t="n">
-        <v>924.7759722222222</v>
+        <v>14797</v>
       </c>
     </row>
     <row r="243">
@@ -4319,7 +4319,7 @@
         <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>1085.959513888889</v>
+        <v>17376</v>
       </c>
     </row>
     <row r="244">
@@ -4335,7 +4335,7 @@
         <v>30</v>
       </c>
       <c r="D244" t="n">
-        <v>1301.813888888889</v>
+        <v>20830</v>
       </c>
     </row>
     <row r="245">
@@ -4351,7 +4351,7 @@
         <v>35</v>
       </c>
       <c r="D245" t="n">
-        <v>1196.540138888889</v>
+        <v>19145</v>
       </c>
     </row>
     <row r="246">
@@ -4367,7 +4367,7 @@
         <v>40</v>
       </c>
       <c r="D246" t="n">
-        <v>1250.231388888889</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="247">
@@ -4383,7 +4383,7 @@
         <v>45</v>
       </c>
       <c r="D247" t="n">
-        <v>1178.483194444444</v>
+        <v>18856</v>
       </c>
     </row>
     <row r="248">
@@ -4399,7 +4399,7 @@
         <v>50</v>
       </c>
       <c r="D248" t="n">
-        <v>1133.354375</v>
+        <v>18134</v>
       </c>
     </row>
     <row r="249">
@@ -4415,7 +4415,7 @@
         <v>55</v>
       </c>
       <c r="D249" t="n">
-        <v>1085.102638888889</v>
+        <v>17362</v>
       </c>
     </row>
     <row r="250">
@@ -4431,7 +4431,7 @@
         <v>60</v>
       </c>
       <c r="D250" t="n">
-        <v>800.9222916666668</v>
+        <v>12815</v>
       </c>
     </row>
     <row r="251">
@@ -4447,7 +4447,7 @@
         <v>65</v>
       </c>
       <c r="D251" t="n">
-        <v>654.9534027777777</v>
+        <v>10480</v>
       </c>
     </row>
     <row r="252">
@@ -4463,7 +4463,7 @@
         <v>70</v>
       </c>
       <c r="D252" t="n">
-        <v>501.1534722222223</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="253">
@@ -4479,7 +4479,7 @@
         <v>75</v>
       </c>
       <c r="D253" t="n">
-        <v>842.1733333333334</v>
+        <v>13475</v>
       </c>
     </row>
     <row r="254">
@@ -4495,7 +4495,7 @@
         <v>20</v>
       </c>
       <c r="D254" t="n">
-        <v>1893.348263888889</v>
+        <v>30294</v>
       </c>
     </row>
     <row r="255">
@@ -4511,7 +4511,7 @@
         <v>25</v>
       </c>
       <c r="D255" t="n">
-        <v>1957.821319444444</v>
+        <v>31326</v>
       </c>
     </row>
     <row r="256">
@@ -4527,7 +4527,7 @@
         <v>30</v>
       </c>
       <c r="D256" t="n">
-        <v>2411.123333333333</v>
+        <v>38578</v>
       </c>
     </row>
     <row r="257">
@@ -4543,7 +4543,7 @@
         <v>35</v>
       </c>
       <c r="D257" t="n">
-        <v>2430.295277777778</v>
+        <v>38885</v>
       </c>
     </row>
     <row r="258">
@@ -4559,7 +4559,7 @@
         <v>40</v>
       </c>
       <c r="D258" t="n">
-        <v>2614.291666666666</v>
+        <v>41829</v>
       </c>
     </row>
     <row r="259">
@@ -4575,7 +4575,7 @@
         <v>45</v>
       </c>
       <c r="D259" t="n">
-        <v>2466.167083333333</v>
+        <v>39459</v>
       </c>
     </row>
     <row r="260">
@@ -4591,7 +4591,7 @@
         <v>50</v>
       </c>
       <c r="D260" t="n">
-        <v>2381.362361111111</v>
+        <v>38102</v>
       </c>
     </row>
     <row r="261">
@@ -4607,7 +4607,7 @@
         <v>55</v>
       </c>
       <c r="D261" t="n">
-        <v>2375.791041666666</v>
+        <v>38013</v>
       </c>
     </row>
     <row r="262">
@@ -4623,7 +4623,7 @@
         <v>60</v>
       </c>
       <c r="D262" t="n">
-        <v>1790.916666666667</v>
+        <v>28655</v>
       </c>
     </row>
     <row r="263">
@@ -4639,7 +4639,7 @@
         <v>65</v>
       </c>
       <c r="D263" t="n">
-        <v>1470.476111111111</v>
+        <v>23528</v>
       </c>
     </row>
     <row r="264">
@@ -4655,7 +4655,7 @@
         <v>70</v>
       </c>
       <c r="D264" t="n">
-        <v>1046.096666666667</v>
+        <v>16738</v>
       </c>
     </row>
     <row r="265">
@@ -4671,7 +4671,7 @@
         <v>75</v>
       </c>
       <c r="D265" t="n">
-        <v>1649.576597222222</v>
+        <v>26394</v>
       </c>
     </row>
     <row r="266">
@@ -4687,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="D266" t="n">
-        <v>836.5378431372549</v>
+        <v>14222</v>
       </c>
     </row>
     <row r="267">
@@ -4703,7 +4703,7 @@
         <v>25</v>
       </c>
       <c r="D267" t="n">
-        <v>844.1707189542484</v>
+        <v>14351</v>
       </c>
     </row>
     <row r="268">
@@ -4719,7 +4719,7 @@
         <v>30</v>
       </c>
       <c r="D268" t="n">
-        <v>732.1919607843138</v>
+        <v>12448</v>
       </c>
     </row>
     <row r="269">
@@ -4735,7 +4735,7 @@
         <v>35</v>
       </c>
       <c r="D269" t="n">
-        <v>635.0647058823531</v>
+        <v>10797</v>
       </c>
     </row>
     <row r="270">
@@ -4751,7 +4751,7 @@
         <v>40</v>
       </c>
       <c r="D270" t="n">
-        <v>760.9649019607843</v>
+        <v>12937</v>
       </c>
     </row>
     <row r="271">
@@ -4767,7 +4767,7 @@
         <v>45</v>
       </c>
       <c r="D271" t="n">
-        <v>791.2519607843137</v>
+        <v>13452</v>
       </c>
     </row>
     <row r="272">
@@ -4783,7 +4783,7 @@
         <v>50</v>
       </c>
       <c r="D272" t="n">
-        <v>802.9054901960784</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="273">
@@ -4799,7 +4799,7 @@
         <v>55</v>
       </c>
       <c r="D273" t="n">
-        <v>740.3980392156863</v>
+        <v>12587</v>
       </c>
     </row>
     <row r="274">
@@ -4815,7 +4815,7 @@
         <v>60</v>
       </c>
       <c r="D274" t="n">
-        <v>550.4618300653594</v>
+        <v>9358</v>
       </c>
     </row>
     <row r="275">
@@ -4831,7 +4831,7 @@
         <v>65</v>
       </c>
       <c r="D275" t="n">
-        <v>434.5735294117647</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="276">
@@ -4847,7 +4847,7 @@
         <v>70</v>
       </c>
       <c r="D276" t="n">
-        <v>325.7967320261438</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="277">
@@ -4863,7 +4863,7 @@
         <v>75</v>
       </c>
       <c r="D277" t="n">
-        <v>572.4762091503268</v>
+        <v>9733</v>
       </c>
     </row>
     <row r="278">
@@ -4879,7 +4879,7 @@
         <v>20</v>
       </c>
       <c r="D278" t="n">
-        <v>630.3136296296295</v>
+        <v>9455</v>
       </c>
     </row>
     <row r="279">
@@ -4895,7 +4895,7 @@
         <v>25</v>
       </c>
       <c r="D279" t="n">
-        <v>720.9857777777778</v>
+        <v>10815</v>
       </c>
     </row>
     <row r="280">
@@ -4911,7 +4911,7 @@
         <v>30</v>
       </c>
       <c r="D280" t="n">
-        <v>797.8974814814815</v>
+        <v>11969</v>
       </c>
     </row>
     <row r="281">
@@ -4927,7 +4927,7 @@
         <v>35</v>
       </c>
       <c r="D281" t="n">
-        <v>719.6396296296296</v>
+        <v>10795</v>
       </c>
     </row>
     <row r="282">
@@ -4943,7 +4943,7 @@
         <v>40</v>
       </c>
       <c r="D282" t="n">
-        <v>752.9707407407408</v>
+        <v>11295</v>
       </c>
     </row>
     <row r="283">
@@ -4959,7 +4959,7 @@
         <v>45</v>
       </c>
       <c r="D283" t="n">
-        <v>708.6354814814815</v>
+        <v>10630</v>
       </c>
     </row>
     <row r="284">
@@ -4975,7 +4975,7 @@
         <v>50</v>
       </c>
       <c r="D284" t="n">
-        <v>735.2001481481482</v>
+        <v>11029</v>
       </c>
     </row>
     <row r="285">
@@ -4991,7 +4991,7 @@
         <v>55</v>
       </c>
       <c r="D285" t="n">
-        <v>742.7005925925926</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="286">
@@ -5007,7 +5007,7 @@
         <v>60</v>
       </c>
       <c r="D286" t="n">
-        <v>560.0167407407407</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="287">
@@ -5023,7 +5023,7 @@
         <v>65</v>
       </c>
       <c r="D287" t="n">
-        <v>432.4368888888889</v>
+        <v>6487</v>
       </c>
     </row>
     <row r="288">
@@ -5039,7 +5039,7 @@
         <v>70</v>
       </c>
       <c r="D288" t="n">
-        <v>310.0837777777777</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="289">
@@ -5055,7 +5055,7 @@
         <v>75</v>
       </c>
       <c r="D289" t="n">
-        <v>489.4974814814815</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="290">
@@ -5071,7 +5071,7 @@
         <v>20</v>
       </c>
       <c r="D290" t="n">
-        <v>1756.713194444445</v>
+        <v>28108</v>
       </c>
     </row>
     <row r="291">
@@ -5087,7 +5087,7 @@
         <v>25</v>
       </c>
       <c r="D291" t="n">
-        <v>1825.674861111111</v>
+        <v>29211</v>
       </c>
     </row>
     <row r="292">
@@ -5103,7 +5103,7 @@
         <v>30</v>
       </c>
       <c r="D292" t="n">
-        <v>2114.238194444444</v>
+        <v>33828</v>
       </c>
     </row>
     <row r="293">
@@ -5119,7 +5119,7 @@
         <v>35</v>
       </c>
       <c r="D293" t="n">
-        <v>1941.65375</v>
+        <v>31067</v>
       </c>
     </row>
     <row r="294">
@@ -5135,7 +5135,7 @@
         <v>40</v>
       </c>
       <c r="D294" t="n">
-        <v>1989.681041666667</v>
+        <v>31835</v>
       </c>
     </row>
     <row r="295">
@@ -5151,7 +5151,7 @@
         <v>45</v>
       </c>
       <c r="D295" t="n">
-        <v>2118.257916666667</v>
+        <v>33893</v>
       </c>
     </row>
     <row r="296">
@@ -5167,7 +5167,7 @@
         <v>50</v>
       </c>
       <c r="D296" t="n">
-        <v>2252.163125</v>
+        <v>36035</v>
       </c>
     </row>
     <row r="297">
@@ -5183,7 +5183,7 @@
         <v>55</v>
       </c>
       <c r="D297" t="n">
-        <v>2204.049583333334</v>
+        <v>35265</v>
       </c>
     </row>
     <row r="298">
@@ -5199,7 +5199,7 @@
         <v>60</v>
       </c>
       <c r="D298" t="n">
-        <v>1610.143541666667</v>
+        <v>25763</v>
       </c>
     </row>
     <row r="299">
@@ -5215,7 +5215,7 @@
         <v>65</v>
       </c>
       <c r="D299" t="n">
-        <v>1223.018125</v>
+        <v>19569</v>
       </c>
     </row>
     <row r="300">
@@ -5231,7 +5231,7 @@
         <v>70</v>
       </c>
       <c r="D300" t="n">
-        <v>837.1586111111112</v>
+        <v>13395</v>
       </c>
     </row>
     <row r="301">
@@ -5247,7 +5247,7 @@
         <v>75</v>
       </c>
       <c r="D301" t="n">
-        <v>1213.86375</v>
+        <v>19422</v>
       </c>
     </row>
   </sheetData>
